--- a/Report Creator/test_subjects/Marks Sheet Term II 2024/A level Marks Sheet Term II 2024/Marksheet A level - ICT.xlsx
+++ b/Report Creator/test_subjects/Marks Sheet Term II 2024/A level Marks Sheet Term II 2024/Marksheet A level - ICT.xlsx
@@ -8,6 +8,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="eHAQq5uYS4FPCKgHI3VOb3B88lGmXGZ7CGAJFP/Tg4A="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -165,11 +170,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,8 +436,12 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>78.0</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
@@ -440,7 +452,9 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="2">
+        <v>56.0</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -464,7 +478,9 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="2">
+        <v>62.0</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -476,7 +492,9 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="2">
+        <v>30.0</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -488,8 +506,12 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="2">
+        <v>58.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>80.0</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -512,7 +534,9 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="2">
+        <v>42.0</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -536,7 +560,9 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="2">
+        <v>52.0</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -548,7 +574,9 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="2">
+        <v>56.0</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -572,7 +600,9 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="2">
+        <v>38.0</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -584,7 +614,9 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="2">
+        <v>62.0</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1636,12 +1668,12 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
@@ -1660,7 +1692,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>70.0</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4">
@@ -1680,7 +1714,9 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>88.0</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6">
@@ -1690,7 +1726,9 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>80.0</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7">
@@ -1710,7 +1748,9 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>90.0</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9">
@@ -1720,7 +1760,9 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>86.0</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10">
@@ -1750,7 +1792,9 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>70.0</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13">
@@ -1820,7 +1864,9 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>82.0</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" ht="15.0" customHeight="1">
